--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -595,7 +595,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -622,7 +622,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -662,7 +662,7 @@
     <t>Identification of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -707,7 +707,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -726,7 +726,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -854,7 +854,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -965,7 +965,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -978,7 +978,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1049,7 +1049,7 @@
     <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1068,7 +1068,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1421,7 +1421,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="48.2109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1436,7 +1436,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceCondition.xlsx
+++ b/docs/StructureDefinition-SpaceCondition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
